--- a/Lab07/out.xlsx
+++ b/Lab07/out.xlsx
@@ -41,11 +41,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -61,6 +62,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,7 +203,35 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Standard vs Random Quick Sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -227,6 +271,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -342,17 +387,45 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="98485511"/>
-        <c:axId val="6029130"/>
+        <c:axId val="29542861"/>
+        <c:axId val="44954496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98485511"/>
+        <c:axId val="29542861"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Inputs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -374,7 +447,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6029130"/>
+        <c:crossAx val="44954496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -382,7 +455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6029130"/>
+        <c:axId val="44954496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,7 +470,35 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -419,7 +520,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98485511"/>
+        <c:crossAx val="29542861"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -472,15 +573,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:colOff>283320</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:colOff>352800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -488,8 +589,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1730520" y="36000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="1977480" y="389520"/>
+        <a:ext cx="5767920" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -509,11 +610,11 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.2"/>
